--- a/proposal/dcache/plots/lm_readdir.xlsx
+++ b/proposal/dcache/plots/lm_readdir.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiache/Workspace/oscar/dcache-optimization/papers/sosp15/plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiache/Workspace/oscar/chiache-thesis/proposal/dcache/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -206,9 +209,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.287469358762171"/>
+          <c:x val="0.190880182448649"/>
           <c:y val="0.182813060343182"/>
-          <c:w val="0.651505510164414"/>
+          <c:w val="0.748094665062174"/>
           <c:h val="0.60792946198819"/>
         </c:manualLayout>
       </c:layout>
@@ -632,11 +635,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-50"/>
-        <c:axId val="-2084397824"/>
-        <c:axId val="-2083675472"/>
+        <c:axId val="2146676960"/>
+        <c:axId val="2143916144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2084397824"/>
+        <c:axId val="2146676960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -670,8 +673,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.238955619183966"/>
-              <c:y val="0.885824491999188"/>
+              <c:x val="0.327947909023835"/>
+              <c:y val="0.883922834637416"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -704,7 +707,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083675472"/>
+        <c:crossAx val="2143916144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -712,7 +715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2083675472"/>
+        <c:axId val="2143916144"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -802,7 +805,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084397824"/>
+        <c:crossAx val="2146676960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -917,8 +920,8 @@
       <xdr:rowOff>197757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>399143</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>90713</xdr:rowOff>
     </xdr:to>
